--- a/directory/templates/template-absensi-pegawai.xlsx
+++ b/directory/templates/template-absensi-pegawai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75A19B1-11AB-42A2-8655-859DCFD6911A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39C1F87-2957-4EEB-98C1-7B2F7E021210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
@@ -96,7 +96,7 @@
     <t>[mesin_p]</t>
   </si>
   <si>
-    <t>[jam_kerja]</t>
+    <t>[jam_kerja] Jam</t>
   </si>
 </sst>
 </file>
@@ -373,34 +373,7 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -425,7 +398,34 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -751,7 +751,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,23 +764,23 @@
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
       <c r="K1" s="12"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -800,15 +800,15 @@
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
       <c r="K2" s="12"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -954,7 +954,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="35"/>
+      <c r="K7" s="26"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -973,26 +973,26 @@
     </row>
     <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="24" t="s">
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27" t="s">
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="36"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -1011,28 +1011,28 @@
     </row>
     <row r="9" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="28" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="37"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="28"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -1051,31 +1051,31 @@
     </row>
     <row r="10" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="25" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="19"/>

--- a/directory/templates/template-absensi-pegawai.xlsx
+++ b/directory/templates/template-absensi-pegawai.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39C1F87-2957-4EEB-98C1-7B2F7E021210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993A75AA-F4A2-47A9-84D2-77DA4A60AFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>NO</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>[jam_kerja] Jam</t>
+  </si>
+  <si>
+    <t>SHIFT</t>
+  </si>
+  <si>
+    <t>[jenis_shift]</t>
   </si>
 </sst>
 </file>
@@ -211,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -306,21 +312,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -395,38 +392,35 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -751,7 +745,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="B1" sqref="B1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,19 +764,19 @@
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="5"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="12"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -800,17 +794,17 @@
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="5"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="12"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
@@ -838,7 +832,7 @@
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
-      <c r="L3" s="7"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -868,7 +862,7 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="7"/>
+      <c r="L4" s="13"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -898,7 +892,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="7"/>
+      <c r="L5" s="13"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -928,7 +922,7 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="7"/>
+      <c r="L6" s="13"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -955,7 +949,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="26"/>
-      <c r="L7" s="6"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -973,27 +967,29 @@
     </row>
     <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="36" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="29" t="s">
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="8"/>
+      <c r="K8" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="27"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -1011,8 +1007,8 @@
     </row>
     <row r="9" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="20" t="s">
         <v>10</v>
       </c>
@@ -1031,9 +1027,9 @@
       <c r="I9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="6"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="9"/>
@@ -1078,8 +1074,10 @@
       <c r="J10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="11"/>
+      <c r="K10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="19"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
@@ -1107,11 +1105,13 @@
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="B1:K2"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B1:J2"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:F8"/>

--- a/directory/templates/template-absensi-pegawai.xlsx
+++ b/directory/templates/template-absensi-pegawai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993A75AA-F4A2-47A9-84D2-77DA4A60AFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFAD0CA-881D-4528-A3D5-66B7DE8F2615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>NO</t>
   </si>
@@ -42,21 +42,9 @@
     <t>[no]</t>
   </si>
   <si>
-    <t>SIMABSEN | ABSEN</t>
-  </si>
-  <si>
     <t>TANGGAL</t>
   </si>
   <si>
-    <t>Export Date : {app_export_date}</t>
-  </si>
-  <si>
-    <t>Nama Pegawai : {nama_lengkap}</t>
-  </si>
-  <si>
-    <t>NRP : {nrp}</t>
-  </si>
-  <si>
     <t>MASUK</t>
   </si>
   <si>
@@ -103,6 +91,39 @@
   </si>
   <si>
     <t>[jenis_shift]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nama Pegawai </t>
+  </si>
+  <si>
+    <t>: {nama_lengkap}</t>
+  </si>
+  <si>
+    <t>NRP</t>
+  </si>
+  <si>
+    <t>: {nrp}</t>
+  </si>
+  <si>
+    <t>HRMIS | Absensi Perorangan</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Sub Unit</t>
+  </si>
+  <si>
+    <t>Jabatan</t>
+  </si>
+  <si>
+    <t>: {nama_unit}</t>
+  </si>
+  <si>
+    <t>: {nama_sub_unit}</t>
+  </si>
+  <si>
+    <t>: {nama_jabatan}</t>
   </si>
 </sst>
 </file>
@@ -112,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;&quot;-Rp&quot;* #,##0_-;_-&quot;Rp&quot;* \-_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,11 +178,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
@@ -185,7 +201,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +232,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -317,7 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -361,16 +383,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -392,34 +408,43 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -742,15 +767,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6F3688-F949-4382-8B45-577625C51054}">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.21875" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
@@ -764,18 +789,18 @@
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="12"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -794,16 +819,16 @@
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="12"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -848,13 +873,15 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="14"/>
@@ -878,13 +905,15 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="13"/>
@@ -908,13 +937,15 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="13"/>
@@ -938,18 +969,23 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -965,31 +1001,23 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="27"/>
+      <c r="B8" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -1005,31 +1033,19 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="26"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="9"/>
@@ -1047,37 +1063,29 @@
     </row>
     <row r="10" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="22" t="s">
+      <c r="B10" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="19"/>
+      <c r="L10" s="17"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
@@ -1093,29 +1101,94 @@
       <c r="Y10" s="11"/>
       <c r="Z10" s="6"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="16"/>
     </row>
+    <row r="12" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="K8:K9"/>
+  <mergeCells count="12">
+    <mergeCell ref="K10:K11"/>
     <mergeCell ref="B1:K2"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/directory/templates/template-absensi-pegawai.xlsx
+++ b/directory/templates/template-absensi-pegawai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFAD0CA-881D-4528-A3D5-66B7DE8F2615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC3407E-B928-46F4-95FD-C302CFB3BDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>SHIFT</t>
   </si>
   <si>
-    <t>[jenis_shift]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nama Pegawai </t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>: {nama_jabatan}</t>
+  </si>
+  <si>
+    <t>[jadwal_nama]</t>
   </si>
 </sst>
 </file>
@@ -770,7 +770,7 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -790,7 +790,7 @@
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -876,11 +876,11 @@
     <row r="4" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -908,11 +908,11 @@
     <row r="5" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -940,11 +940,11 @@
     <row r="6" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -972,11 +972,11 @@
     <row r="7" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1004,11 +1004,11 @@
     <row r="8" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -1157,7 +1157,7 @@
         <v>16</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L12" s="16"/>
     </row>

--- a/directory/templates/template-absensi-pegawai.xlsx
+++ b/directory/templates/template-absensi-pegawai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC3407E-B928-46F4-95FD-C302CFB3BDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB62194-B2EC-4F77-9F1E-12DB619BB6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
@@ -784,7 +784,7 @@
     <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/directory/templates/template-absensi-pegawai.xlsx
+++ b/directory/templates/template-absensi-pegawai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB62194-B2EC-4F77-9F1E-12DB619BB6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C547D83C-E8BB-4BC2-A1EC-FEC8EC3850C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
@@ -123,7 +123,7 @@
     <t>: {nama_jabatan}</t>
   </si>
   <si>
-    <t>[jadwal_nama]</t>
+    <t>[jenis_shift]</t>
   </si>
 </sst>
 </file>
@@ -770,7 +770,7 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/directory/templates/template-absensi-pegawai.xlsx
+++ b/directory/templates/template-absensi-pegawai.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C547D83C-E8BB-4BC2-A1EC-FEC8EC3850C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383CF24D-3B48-44FB-9F49-D3516FA65A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>NO</t>
   </si>
@@ -72,21 +72,12 @@
     <t>[verifikasi_m]</t>
   </si>
   <si>
-    <t>[mesin_m]</t>
-  </si>
-  <si>
     <t>[jam_pulang]</t>
   </si>
   <si>
     <t>[verifikasi_p]</t>
   </si>
   <si>
-    <t>[mesin_p]</t>
-  </si>
-  <si>
-    <t>[jam_kerja] Jam</t>
-  </si>
-  <si>
     <t>SHIFT</t>
   </si>
   <si>
@@ -123,15 +114,31 @@
     <t>: {nama_jabatan}</t>
   </si>
   <si>
-    <t>[jenis_shift]</t>
+    <t>[cek_waktu_masuk]</t>
+  </si>
+  <si>
+    <t>[nama_mesin_masuk]</t>
+  </si>
+  <si>
+    <t>[cek_waktu_pulang]</t>
+  </si>
+  <si>
+    <t>[nama_mesin_pulang]</t>
+  </si>
+  <si>
+    <t>[jam_kerja]</t>
+  </si>
+  <si>
+    <t>[jadwal_nama]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;&quot;-Rp&quot;* #,##0_-;_-&quot;Rp&quot;* \-_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -239,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -312,17 +319,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -339,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -383,9 +379,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -398,9 +391,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -432,27 +422,48 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F23446B0-EBF5-43EA-ACDB-CA130876891E}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -770,7 +781,7 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,29 +789,31 @@
     <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.21875" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="B1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
       <c r="L1" s="12"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -819,16 +832,16 @@
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
       <c r="L2" s="12"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -875,12 +888,12 @@
     </row>
     <row r="4" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="26" t="s">
-        <v>19</v>
+      <c r="B4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -907,12 +920,12 @@
     </row>
     <row r="5" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="26" t="s">
-        <v>21</v>
+      <c r="B5" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -939,12 +952,12 @@
     </row>
     <row r="6" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="24" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -971,12 +984,12 @@
     </row>
     <row r="7" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="24" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="26" t="s">
-        <v>27</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -984,8 +997,8 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -1003,12 +1016,12 @@
     </row>
     <row r="8" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="24" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="26" t="s">
-        <v>28</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -1017,7 +1030,7 @@
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
-      <c r="L8" s="25"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -1045,7 +1058,7 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
-      <c r="L9" s="24"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="9"/>
@@ -1063,30 +1076,30 @@
     </row>
     <row r="10" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="34" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="27" t="s">
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="11"/>
+      <c r="M10" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
@@ -1103,63 +1116,69 @@
     </row>
     <row r="11" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="18" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="H11" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="I11" s="34"/>
+      <c r="J11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="K11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="16"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="G12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="I12" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="16"/>
+      <c r="L12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
@@ -1176,20 +1195,32 @@
       <c r="L13" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="K10:K11"/>
+  <mergeCells count="14">
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="B1:K2"/>
-    <mergeCell ref="J10:J11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
   </mergeCells>
+  <conditionalFormatting sqref="E10:E12">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/directory/templates/template-absensi-pegawai.xlsx
+++ b/directory/templates/template-absensi-pegawai.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis\directory\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383CF24D-3B48-44FB-9F49-D3516FA65A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20D9613-B75E-4E0C-84E0-9F792E6B64E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -401,14 +401,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -428,14 +434,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -781,42 +784,42 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="12"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
@@ -830,21 +833,21 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="6"/>
     </row>
-    <row r="2" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="12"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -858,7 +861,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="1:26" ht="21.6" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -871,8 +874,8 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
@@ -886,12 +889,12 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="24" t="s">
         <v>16</v>
       </c>
@@ -903,8 +906,8 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
@@ -918,12 +921,12 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="33"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="24" t="s">
         <v>18</v>
       </c>
@@ -935,8 +938,8 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
@@ -950,12 +953,12 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="24" t="s">
         <v>23</v>
       </c>
@@ -967,8 +970,8 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
@@ -982,12 +985,12 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="24" t="s">
         <v>24</v>
       </c>
@@ -999,8 +1002,8 @@
       <c r="J7" s="15"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -1014,12 +1017,12 @@
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="33"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="24" t="s">
         <v>25</v>
       </c>
@@ -1031,8 +1034,8 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="23"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
@@ -1046,7 +1049,7 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -1059,8 +1062,8 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="22"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -1074,33 +1077,33 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="6"/>
     </row>
-    <row r="10" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34" t="s">
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="25" t="s">
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="36"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
@@ -1114,34 +1117,35 @@
       <c r="Y10" s="11"/>
       <c r="Z10" s="6"/>
     </row>
-    <row r="11" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="34" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="34"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="34"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="17" t="s">
         <v>7</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="16"/>
     </row>
-    <row r="12" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="19" t="s">
         <v>1</v>
@@ -1149,10 +1153,10 @@
       <c r="C12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="26" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="20" t="s">
@@ -1161,10 +1165,10 @@
       <c r="G12" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="26" t="s">
         <v>28</v>
       </c>
       <c r="J12" s="20" t="s">
@@ -1179,8 +1183,9 @@
       <c r="M12" s="21" t="s">
         <v>31</v>
       </c>
+      <c r="N12" s="16"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1193,16 +1198,11 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B1:K2"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B4:C4"/>
@@ -1210,17 +1210,14 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B1:M2"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
-  <conditionalFormatting sqref="E10:E12">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I12">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/directory/templates/template-absensi-pegawai.xlsx
+++ b/directory/templates/template-absensi-pegawai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\hrmis-master\directory\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20D9613-B75E-4E0C-84E0-9F792E6B64E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BF3B55-608F-415B-8380-9A2718B0577A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{31A0B364-D528-4097-98D0-DBAC8A79801F}"/>
   </bookViews>
@@ -335,18 +335,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -398,46 +392,46 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,28 +439,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F23446B0-EBF5-43EA-ACDB-CA130876891E}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -784,7 +757,7 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D8" sqref="D8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,61 +778,61 @@
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="6"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="6"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -868,341 +841,353 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="6"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="6"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="6"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="6"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="6"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="6"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27" t="s">
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28" t="s">
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="36"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="6"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="27" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="32"/>
+      <c r="F11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="17" t="s">
+      <c r="I11" s="32"/>
+      <c r="J11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="16"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="16"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="19">
+    <mergeCell ref="B1:M2"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B4:C4"/>
@@ -1210,13 +1195,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B1:M2"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
